--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\sykze\Documents\Projet_Perso\PushLeboncoin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F167DF76-977B-4706-8D6A-CDE7132FA4A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A58D44-ACBB-4079-BBCF-47E93EB1AC40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
